--- a/Cronograma do Projeto 2016.xlsx
+++ b/Cronograma do Projeto 2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\012111.FTEC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\project123\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
   <si>
     <t>Semana</t>
   </si>
@@ -142,6 +142,135 @@
   <si>
     <t>Importar Boletim de Instrução Pt 2 Boletim Diário, Gerenciamento Texto de Informativo Pt 3 Boletim Diário, Gerenciamento de Justiça e Disciplina Pt 4 Boletim Diário, Gerenciador de Boletim Diário</t>
   </si>
+  <si>
+    <t>Carlos</t>
+  </si>
+  <si>
+    <t>Clei</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Demetrius</t>
+  </si>
+  <si>
+    <t>Diogo</t>
+  </si>
+  <si>
+    <t>Guilherme</t>
+  </si>
+  <si>
+    <t>Apresentação</t>
+  </si>
+  <si>
+    <t>PPT + Apresentação</t>
+  </si>
+  <si>
+    <t>Cronograma + Apresentação</t>
+  </si>
+  <si>
+    <t>Criar testes com Rspec + Criação de métodos de usuairos de acordo com requisitos 16 e figura 32 + Criaçõ do Controller User + Criação do model + Configuração do RoR com framework ADMIN-LET + Criação dos métodos de autenticção e autorização + Criação controller LoginController + Criação do model login Ruby on Rails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar Rotas para CRUD  de Tipos de Serviço de acordo com RF11 + Criar Model para Tipos de Serviço de acordo com RF11 + Criar Controller para Tipos de Serviço de acordo com RF11 </t>
+  </si>
+  <si>
+    <t>Criar Rotas para CRUD de Funções de acordo com RF10 + Criar Model para Funções de acordo com RF10 + Criar View para CRUD de Funções de acordo com RF10</t>
+  </si>
+  <si>
+    <t>Criar Rotas para CRUD de Posto/Graduação de acordo com RF8 + Criar Model para Posto/Graduação de acordo com RF8 + Criar Controller para Posto/Graduação + Criar View para CRUD de Posto/Graduação de acordo com RF8</t>
+  </si>
+  <si>
+    <t>Criar rotas par CRUD de GPM de acordo com RF6 + Criar Model para GPM de acordo com RF6 +Criar Controller para GPM de acordo com RF6 + Criar View para CRUD de GPM DE ACORDO COM RF6</t>
+  </si>
+  <si>
+    <t>criar rotas para CRUD Campanhias de acordo com RF7 + Criar Model para Campanhias de acordo com RF7 + Criar Controller para Companhias de acordo com RF7 + Criar View para CRUD de Companhias de acordo com RF7</t>
+  </si>
+  <si>
+    <t>Criar rotas para CRUD OPM de acordo com RF5 + Criar Model para OPM de acordo com RF5 + Criar Controller para OPM de acordo com RF5 + Criar View para CRUD de OPM de acordo com RF5</t>
+  </si>
+  <si>
+    <t>Crir Controller para Quadro Efetivo de acordo com RF20 + Criar Model para Quadro Efetivo de acordo com RF20 + Criar Views para CRUD de Quadro Efetivo de acordo com RF20 + Criar Rotas para CRUD de Quadro Efetivo de acordo com RF20</t>
+  </si>
+  <si>
+    <t>Criar Controller para Apontamento de Hors de acordo com RF17 + Criar Model para Apontamento de Horas de acordo com RF17 + Criar Views para CRUD de Apontamento de Horas de acordo com RF17 + Criar Rotas para CRUD de apontamento de Horas de acordo com RF17</t>
+  </si>
+  <si>
+    <t>Criar Controller para Lançamento de Férias de acordo com RF9 + Criar Model para Lamçamento de Féris de acordo com RF9 + Crir View para CRUD de Lançamento de Férias de acordo com RF9</t>
+  </si>
+  <si>
+    <t>Criar controller para Distribuição de Horas Extra de acordo com RF14 + Criar Viewa para CRUD de Distribuição de Horas Extra de acordo com RF14 + Criar Model para Distribuição de Horas Extra de acordo com RF14 + Criar Rotas para CRUD de Distribuição de Horas Extra de acordo com RF14</t>
+  </si>
+  <si>
+    <t>Criar Model para Uniformes de acordo com RF13 + Criar Controller para Uniforme de acordo com RF13 + Criar View para CRUD de Uniformes de acordo com RF13 + Criar Rotas para CRUD de Uniformes de acordo com RF13</t>
+  </si>
+  <si>
+    <t>Criar View para CRUD de Siglas de acordo com RF12 + Criar Rotas Controller para Siglas de acordo com RF12 + Criar Model para Siglas de acordo com RF12 + Criar Rotas para CRUD de Siglas de acordo com RF12</t>
+  </si>
+  <si>
+    <t>Criar Controller de Substituição Temporária de acordo com RF23 + Criar Model de Substituição de acordo com RF23 + Criar Rots para CRUD de Substituição Temporária de acordo com RF23 + Criar View para CRUD de Substituição</t>
+  </si>
+  <si>
+    <t>Criar Controller para Gerenciamento de Carga Horária de Acordo com com RF35 + Criar Model para Gerenciamento de carga Horária de acordo com RF35 + Criar Rotas para CRUD de Gerenciamento de Carga Horária de acordo com RF35 + Criar Views para CRUD de Gerencimento de Carga Horária de acordo com RF35</t>
+  </si>
+  <si>
+    <t>Criar Controller para Gerenciamento de substituição Temporária de acordo com RF34 + Criar Model para Gerenciamento de Substituição Temporária de acordo com RF34 + Criar Rotas para CRUD de Gerenciamento de Substituição Temporária de acordo com RF34 + Criar Views para CRUD de Gerencimento de Substituição Temporária de cordo com RF34</t>
+  </si>
+  <si>
+    <t>Criar Controller de Gerenciamento de LE/LTIP de acordo com RF33 + Criar Model para Gerenciamento de LE/LTIP de acordo com RF33 + Criar Rotas para CRUD de Gerenciamento de LE/LTIP de acordo com RF33 + Criar Views para CRUD de Gerenciamento de LE/LTIP de acordo com RF33</t>
+  </si>
+  <si>
+    <t>Criar Controller para Gerenciamento de Perfil de acordo com RF32 + Criar Model para Gerenciamento de Perfil de acordo com RF32 + Criar Rotas para CRUD de Gerenciamento de Perfil de cordo com RF32 + Criar Views para CRUD de Gerenciamento de Perfil de acordo com RF32</t>
+  </si>
+  <si>
+    <t>Criar Rotas para Página Inicial acordo com RF2 + Criar Controller para Página Inicial acordo com RF2 + Criar View para Página Inicial acordo com RF2 + Criar Controller para Gerenciamento de Estagiário de acordo com RF31 + Criar Model para Gerencimento de Estagiário de acordo com RF31 + Criar Model para Gerenciamento de Estagiário de acordo com RF31 + Criar Model para Gerenciamento de Estagiário de acordo com RF31 + Criar Rotas para CRUD de Gerenciamento de Estagiário de acordo com RF31 + Criar Views para CRUD de Gerenciamento de Estagiário de acordo com RF31</t>
+  </si>
+  <si>
+    <t>Criar Controller Relatório de Horas Extras/Suplementação de acordo com RF15  + Criar View para Relatório de Horas Extras/Suplementação de acordo com RF15</t>
+  </si>
+  <si>
+    <t>Criar Controller para Aprovação de Indisponibilidade e Afastamento (Responsável CRPO) de acordo com RF19 + Criar Model para Aprovação de Indisponibilidade e Afastamento (Responsável CRPO) de acordo com RF19 + Criar Views para CRUD de Aprovação de Indisponibildade e Afastamento (Responsável CRPO) de acordo com RF19 + Criar Rotas para CRUD de Aprovção de Indisponibilidade e Afastamento (Respons´vel CRPO) de acordo com RF19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar Controller de Aprovação de Indisponibilidade e Afastamento (Superior) de acordo com RF21 + Criar Model de Aprovção de Indisponibilidade e Afastamento (Superior) de acordo com RF21 + Criar Rotas para CRUD de Aprovação de Indisponibilidade e Afastamento (Superior) de acordo com RF21 + Criar Views para CRUD de Aprovação de Indidponibilidade e Afastamento (Superior) de acordo com RF21 </t>
+  </si>
+  <si>
+    <t>Crir Controller para Solicitação de Dispença e Afstamento de acordo com RF18 + Criar Model para Solicitação de Dispensa e Afastamento de acordo com RF18 + Criar Views para CRUD de Solicitalção de Dispensa e Afastamento de acordo com RF18 + Criar Views para CRUD de Solicitação de Dispensa e Afastamento de acordo com RF18 + Criar Rotas para CRUD de Solicitação de Dispensa e Afastamento de acordo com RF18</t>
+  </si>
+  <si>
+    <t>Criar Model para Vizualizar Boletim de acordo com RF04 +  Criar Controller para Visualizar Boletim de acordo com RF04</t>
+  </si>
+  <si>
+    <t>Criar Views para CRUD de Visualizar Boletim de acordo com RF04 + Criar Rotas para CRUD de Visualizar Boletim de acordo com RF04</t>
+  </si>
+  <si>
+    <t>Criar Model para Importar Boletim de acordo com RF03 + Criar Model para Importar Boletim de acordo com RF03 + Criar Controller para Importar Boletim de acordo com RF03</t>
+  </si>
+  <si>
+    <t>Criar Views para CRUD de Importar Boletim de acordo com RF03 + Criar Rota para CRUD de Importar Boletim de acordo com RF03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criar  Controller para Gerenciamento de Informativo de acordo com RF27 + Criar Model para Gerenciamento de Informativo de acordo com RF27 + Criar Views para CRUD de Gerenciamento de Informativo de acordo com RF27 + Criar Rotas CRUD  de Gerenciamento de Informativo de acordo com RF27 </t>
+  </si>
+  <si>
+    <t>Criar Controller para Gerencimento de Boletim de Instrução de acordo com RF25 + Criar Model de Gerenciamento de Boletim de Instrução de acordo com RF25 + Criar Views para CRUD de Gerenciamento de Boletim de Instrução de Acordo com RF25 + Criar Rotas para CRUD de Gerencimento de Boletim de Instrução de acordo com RF25</t>
+  </si>
+  <si>
+    <t>Criar Controller para Gerador de Boletim Diário de acordo com RF29 + Criar Model para Gerador de Boletim Diário de acordo com RF29 +</t>
+  </si>
+  <si>
+    <t>Criar Views para CRUD de Gerador de Boletim Diário de acordo com RF29 + Criar Rotas para CRUD de Gerador de Boletim Diário de acordo com RF29</t>
+  </si>
+  <si>
+    <t>Criar Controller Gerenciador de Boletim Diário de acordo com RF30 + Criar Model para Gerenciador de Boletim Diário de acordo com RF30 + Criar Views para CRUD de Gerenciador de Boletim Diário de acordo com RF30 + Criar Rotas CRUD de acordo com RF30</t>
+  </si>
+  <si>
+    <t>Criar Rotas para CRUD de Gerenciamento Texto de Informativo Pt 3 Boletim Diário de acordo com RF26 + Criar Model para Gerenciamento Texto de Informativo Pt 3 Boletim Diário de cordo com RF26 + Criar Controller para Gerenciamento Texto de Informativo Pt 3 Boletim Diário de acordo com RF26 + Criar Views para CRUD de Gerenciamento Texto de Informativo Pt 3 Boletim Diário de acordo com RF26</t>
+  </si>
+  <si>
+    <t>Criar Controller para Importar Boletim de Instrução Pt 2 Boletim Diário de acordo com RF24 + Criar Model para Importar Boletim de Instrução Pt 2 Boletim Diário de acordo com RF24 + Criar Rotas para CRUD de Importr Boletim de Instrução Pt2 Boletim Diário de acordo com RF24 + Criar Views para CRUD de Importar Boletim de Instrução Pt2 Boletim Diário de acordo com RF24</t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +325,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -211,7 +347,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -389,11 +525,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,11 +621,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -629,17 +840,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B8:G28" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="B8:G28"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="Semana" dataDxfId="5"/>
-    <tableColumn id="2" name="Data" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="B8:M28" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="B8:M28"/>
+  <tableColumns count="12">
+    <tableColumn id="1" name="Semana" dataDxfId="11"/>
+    <tableColumn id="2" name="Data" dataDxfId="10">
       <calculatedColumnFormula>C8+7</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Entrega:" dataDxfId="3"/>
-    <tableColumn id="3" name="Presença" dataDxfId="2"/>
-    <tableColumn id="6" name="% na Data" dataDxfId="1"/>
-    <tableColumn id="5" name="Data Entrega" dataDxfId="0"/>
+    <tableColumn id="4" name="Entrega:" dataDxfId="9"/>
+    <tableColumn id="3" name="Carlos" dataDxfId="8"/>
+    <tableColumn id="6" name="Clei" dataDxfId="7"/>
+    <tableColumn id="5" name="Daniel" dataDxfId="6"/>
+    <tableColumn id="7" name="Demetrius" dataDxfId="5"/>
+    <tableColumn id="8" name="Diogo" dataDxfId="4"/>
+    <tableColumn id="9" name="Guilherme" dataDxfId="3"/>
+    <tableColumn id="11" name="Presença" dataDxfId="2"/>
+    <tableColumn id="12" name="% na Data" dataDxfId="1"/>
+    <tableColumn id="13" name="Data Entrega" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -966,10 +1183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,32 +1195,35 @@
     <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="63.28515625" customWidth="1"/>
-    <col min="5" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1011,7 +1231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -1019,7 +1239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1030,16 +1250,34 @@
         <v>4</v>
       </c>
       <c r="E8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="L8" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="M8" s="28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>1</v>
       </c>
@@ -1049,11 +1287,17 @@
       <c r="D9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="2:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12">
         <v>2</v>
       </c>
@@ -1064,11 +1308,29 @@
       <c r="D10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="29"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>3</v>
       </c>
@@ -1082,8 +1344,14 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="29"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>4</v>
       </c>
@@ -1094,11 +1362,19 @@
       <c r="D12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>42</v>
+      </c>
       <c r="F12" s="10"/>
       <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="29"/>
+    </row>
+    <row r="13" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>5</v>
       </c>
@@ -1109,11 +1385,29 @@
       <c r="D13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="29"/>
+    </row>
+    <row r="14" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>6</v>
       </c>
@@ -1124,11 +1418,29 @@
       <c r="D14" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="29"/>
+    </row>
+    <row r="15" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>7</v>
       </c>
@@ -1139,11 +1451,29 @@
       <c r="D15" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="2:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="E15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="29"/>
+    </row>
+    <row r="16" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>8</v>
       </c>
@@ -1155,10 +1485,24 @@
         <v>28</v>
       </c>
       <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="29"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>9</v>
       </c>
@@ -1171,9 +1515,23 @@
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="29"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>10</v>
       </c>
@@ -1187,8 +1545,14 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="29"/>
+    </row>
+    <row r="19" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>11</v>
       </c>
@@ -1199,11 +1563,21 @@
       <c r="D19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>12</v>
       </c>
@@ -1217,8 +1591,14 @@
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="29"/>
+    </row>
+    <row r="21" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>13</v>
       </c>
@@ -1231,9 +1611,19 @@
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="G21" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="29"/>
+    </row>
+    <row r="22" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>14</v>
       </c>
@@ -1245,10 +1635,22 @@
         <v>32</v>
       </c>
       <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="29"/>
+    </row>
+    <row r="23" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>15</v>
       </c>
@@ -1262,8 +1664,14 @@
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="29"/>
+    </row>
+    <row r="24" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>16</v>
       </c>
@@ -1277,8 +1685,14 @@
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="29"/>
+    </row>
+    <row r="25" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>17</v>
       </c>
@@ -1292,8 +1706,14 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="29"/>
+    </row>
+    <row r="26" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>18</v>
       </c>
@@ -1307,8 +1727,14 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="29"/>
+    </row>
+    <row r="27" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>19</v>
       </c>
@@ -1322,8 +1748,14 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="29"/>
+    </row>
+    <row r="28" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
         <v>20</v>
       </c>
@@ -1337,6 +1769,12 @@
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
       <c r="G28" s="21"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
